--- a/DATA_FILES/X_TEST_EXCEL_CREATE2.xlsx
+++ b/DATA_FILES/X_TEST_EXCEL_CREATE2.xlsx
@@ -465,19 +465,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.753</v>
+        <v>-2.49</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8080000000000001</v>
+        <v>-0.502</v>
       </c>
       <c r="D2" t="n">
-        <v>1.586</v>
+        <v>0.707</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.836</v>
+        <v>-0.033</v>
       </c>
       <c r="F2" t="n">
-        <v>0.234</v>
+        <v>0.577</v>
       </c>
     </row>
     <row r="3">
@@ -485,19 +485,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.491</v>
+        <v>1.328</v>
       </c>
       <c r="C3" t="n">
-        <v>0.301</v>
+        <v>0.995</v>
       </c>
       <c r="D3" t="n">
-        <v>0.214</v>
+        <v>0.103</v>
       </c>
       <c r="E3" t="n">
-        <v>1.073</v>
+        <v>0.423</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.392</v>
+        <v>2.167</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.519</v>
+        <v>-1.029</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.287</v>
+        <v>-0.606</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.928</v>
+        <v>0.61</v>
       </c>
       <c r="E4" t="n">
-        <v>2.328</v>
+        <v>-0.866</v>
       </c>
       <c r="F4" t="n">
-        <v>1.003</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +525,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06900000000000001</v>
+        <v>-0.592</v>
       </c>
       <c r="C5" t="n">
-        <v>0.628</v>
+        <v>-0.74</v>
       </c>
       <c r="D5" t="n">
-        <v>0.122</v>
+        <v>0.488</v>
       </c>
       <c r="E5" t="n">
-        <v>1.22</v>
+        <v>1.681</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.837</v>
+        <v>0.632</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.718</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.635</v>
+        <v>-0.8139999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.208</v>
+        <v>-0.438</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.673</v>
+        <v>-0.433</v>
       </c>
     </row>
     <row r="7">
@@ -565,19 +565,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.155</v>
+        <v>-0.605</v>
       </c>
       <c r="C7" t="n">
-        <v>1.167</v>
+        <v>-1.059</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.45</v>
+        <v>-1.492</v>
       </c>
       <c r="E7" t="n">
-        <v>1.016</v>
+        <v>-0.726</v>
       </c>
       <c r="F7" t="n">
-        <v>0.134</v>
+        <v>-1.533</v>
       </c>
     </row>
     <row r="8">
@@ -585,19 +585,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.837</v>
+        <v>-0.018</v>
       </c>
       <c r="C8" t="n">
-        <v>0.783</v>
+        <v>-0.145</v>
       </c>
       <c r="D8" t="n">
-        <v>0.359</v>
+        <v>0.364</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.445</v>
+        <v>0.516</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.29</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="9">
@@ -605,19 +605,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.172</v>
+        <v>0.03</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.9340000000000001</v>
+        <v>2.63</v>
       </c>
       <c r="D9" t="n">
-        <v>0.348</v>
+        <v>-0.243</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.083</v>
+        <v>0.263</v>
       </c>
       <c r="F9" t="n">
-        <v>2.014</v>
+        <v>-0.919</v>
       </c>
     </row>
     <row r="10">
@@ -625,19 +625,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.403</v>
+        <v>-0.027</v>
       </c>
       <c r="C10" t="n">
-        <v>0.458</v>
+        <v>-1.767</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.336</v>
+        <v>-0.886</v>
       </c>
       <c r="E10" t="n">
-        <v>0.176</v>
+        <v>1.227</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.472</v>
+        <v>-0.736</v>
       </c>
     </row>
     <row r="11">
@@ -645,19 +645,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.989</v>
+        <v>-0.483</v>
       </c>
       <c r="C11" t="n">
-        <v>1.877</v>
+        <v>0.097</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.384</v>
+        <v>2.171</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.583</v>
+        <v>0.799</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.04</v>
+        <v>-0.275</v>
       </c>
     </row>
     <row r="12">
@@ -665,19 +665,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.183</v>
+        <v>0.633</v>
       </c>
       <c r="C12" t="n">
-        <v>0.506</v>
+        <v>0.005</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.449</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01</v>
+        <v>1.518</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.752</v>
+        <v>1.008</v>
       </c>
     </row>
     <row r="13">
@@ -685,19 +685,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.616</v>
+        <v>-1.059</v>
       </c>
       <c r="C13" t="n">
-        <v>0.612</v>
+        <v>-0.671</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.537</v>
+        <v>1.083</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.171</v>
+        <v>-0.003</v>
       </c>
       <c r="F13" t="n">
-        <v>0.859</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="14">
@@ -705,19 +705,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.748</v>
+        <v>-1.478</v>
       </c>
       <c r="C14" t="n">
-        <v>0.041</v>
+        <v>-0.253</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.85</v>
+        <v>0.135</v>
       </c>
       <c r="E14" t="n">
-        <v>0.986</v>
+        <v>-0.698</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.354</v>
+        <v>-1.502</v>
       </c>
     </row>
     <row r="15">
@@ -725,19 +725,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.195</v>
+        <v>2.534</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.689</v>
+        <v>-0.879</v>
       </c>
       <c r="D15" t="n">
-        <v>0.416</v>
+        <v>0.926</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.078</v>
+        <v>-0.09</v>
       </c>
       <c r="F15" t="n">
-        <v>0.294</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="16">
@@ -745,19 +745,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.113</v>
+        <v>1.01</v>
       </c>
       <c r="C16" t="n">
-        <v>0.282</v>
+        <v>-0.378</v>
       </c>
       <c r="D16" t="n">
-        <v>0.72</v>
+        <v>0.984</v>
       </c>
       <c r="E16" t="n">
-        <v>1.884</v>
+        <v>1.596</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.453</v>
+        <v>-1.626</v>
       </c>
     </row>
     <row r="17">
@@ -765,19 +765,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.399</v>
+        <v>0.917</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.501</v>
+        <v>-0.606</v>
       </c>
       <c r="D17" t="n">
-        <v>1.726</v>
+        <v>-1.379</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.231</v>
+        <v>-0.9409999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.716</v>
+        <v>-0.948</v>
       </c>
     </row>
     <row r="18">
@@ -785,19 +785,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.228</v>
+        <v>1.629</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.63</v>
+        <v>0.251</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.258</v>
+        <v>-0.732</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.329</v>
+        <v>-0.523</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.427</v>
+        <v>1.833</v>
       </c>
     </row>
     <row r="19">
@@ -805,19 +805,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.77</v>
+        <v>-1.411</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.785</v>
+        <v>-0.8179999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.58</v>
+        <v>-0.1</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.58</v>
+        <v>-0.516</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.553</v>
+        <v>-1.137</v>
       </c>
     </row>
     <row r="20">
@@ -825,19 +825,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.347</v>
+        <v>-0.287</v>
       </c>
       <c r="C20" t="n">
-        <v>0.771</v>
+        <v>-0.312</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.065</v>
+        <v>-0.09</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04</v>
+        <v>-1.475</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.078</v>
+        <v>-2.083</v>
       </c>
     </row>
     <row r="21">
@@ -845,19 +845,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.535</v>
+        <v>-0.744</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.434</v>
+        <v>0.656</v>
       </c>
       <c r="D21" t="n">
-        <v>1.021</v>
+        <v>-1.21</v>
       </c>
       <c r="E21" t="n">
-        <v>0.657</v>
+        <v>-0.456</v>
       </c>
       <c r="F21" t="n">
-        <v>1.908</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="22">
@@ -865,19 +865,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.156</v>
+        <v>-1.332</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.307</v>
+        <v>-1.116</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.801</v>
+        <v>-0.144</v>
       </c>
       <c r="E22" t="n">
-        <v>0.293</v>
+        <v>-0.352</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.827</v>
+        <v>-0.775</v>
       </c>
     </row>
     <row r="23">
@@ -885,19 +885,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.502</v>
+        <v>-0.367</v>
       </c>
       <c r="C23" t="n">
-        <v>0.946</v>
+        <v>-1.25</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.126</v>
+        <v>0.138</v>
       </c>
       <c r="E23" t="n">
-        <v>0.27</v>
+        <v>-0.3</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.08699999999999999</v>
+        <v>-0.048</v>
       </c>
     </row>
     <row r="24">
@@ -905,19 +905,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.928</v>
+        <v>-0.041</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.321</v>
+        <v>-1.117</v>
       </c>
       <c r="D24" t="n">
-        <v>1.155</v>
+        <v>2.096</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.908</v>
+        <v>1.055</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.225</v>
+        <v>-0.655</v>
       </c>
     </row>
     <row r="25">
@@ -925,19 +925,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.09</v>
+        <v>-0.245</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.243</v>
+        <v>0.098</v>
       </c>
       <c r="D25" t="n">
-        <v>0.593</v>
+        <v>-0.228</v>
       </c>
       <c r="E25" t="n">
-        <v>1.412</v>
+        <v>1.034</v>
       </c>
       <c r="F25" t="n">
-        <v>0.847</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="26">
@@ -945,19 +945,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.655</v>
+        <v>-0.853</v>
       </c>
       <c r="C26" t="n">
-        <v>0.166</v>
+        <v>-0.98</v>
       </c>
       <c r="D26" t="n">
-        <v>0.335</v>
+        <v>-0.991</v>
       </c>
       <c r="E26" t="n">
+        <v>-0.425</v>
+      </c>
+      <c r="F26" t="n">
         <v>-0.07199999999999999</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-1.342</v>
       </c>
     </row>
     <row r="27">
@@ -965,19 +965,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.131</v>
+        <v>0.605</v>
       </c>
       <c r="C27" t="n">
-        <v>0.197</v>
+        <v>-0.046</v>
       </c>
       <c r="D27" t="n">
-        <v>1.824</v>
+        <v>-1.136</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.702</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>0.056</v>
+        <v>-0.962</v>
       </c>
     </row>
     <row r="28">
@@ -985,19 +985,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.171</v>
+        <v>0.145</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.595</v>
+        <v>-0.713</v>
       </c>
       <c r="D28" t="n">
-        <v>2.645</v>
+        <v>0.625</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.6830000000000001</v>
+        <v>1.209</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.052</v>
+        <v>1.481</v>
       </c>
     </row>
     <row r="29">
@@ -1005,19 +1005,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.59</v>
+        <v>1.993</v>
       </c>
       <c r="C29" t="n">
-        <v>0.207</v>
+        <v>-0.342</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.817</v>
+        <v>0.437</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.641</v>
+        <v>-0.365</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.438</v>
+        <v>1.422</v>
       </c>
     </row>
     <row r="30">
@@ -1025,19 +1025,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.367</v>
+        <v>-0.261</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.485</v>
+        <v>0.666</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.408</v>
+        <v>-0.059</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.28</v>
+        <v>-1.313</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.999</v>
+        <v>-1.289</v>
       </c>
     </row>
     <row r="31">
@@ -1045,19 +1045,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.098</v>
+        <v>-1.009</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.417</v>
+        <v>-0.244</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.037</v>
+        <v>-1.067</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.277</v>
+        <v>1.307</v>
       </c>
       <c r="F31" t="n">
-        <v>0.71</v>
+        <v>-2.141</v>
       </c>
     </row>
     <row r="32">
@@ -1065,19 +1065,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.469</v>
+        <v>-1.766</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.616</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.431</v>
+        <v>0.89</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.688</v>
+        <v>-0.171</v>
       </c>
       <c r="F32" t="n">
-        <v>0.174</v>
+        <v>-1.228</v>
       </c>
     </row>
     <row r="33">
@@ -1085,19 +1085,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.916</v>
+        <v>-0.247</v>
       </c>
       <c r="C33" t="n">
-        <v>0.376</v>
+        <v>1.314</v>
       </c>
       <c r="D33" t="n">
-        <v>0.236</v>
+        <v>1.948</v>
       </c>
       <c r="E33" t="n">
-        <v>1.077</v>
+        <v>-0.59</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.287</v>
+        <v>-0.9340000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1105,19 +1105,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.647</v>
       </c>
       <c r="C34" t="n">
-        <v>0.862</v>
+        <v>1.12</v>
       </c>
       <c r="D34" t="n">
-        <v>0.29</v>
+        <v>-0.073</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.444</v>
+        <v>1.473</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.096</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="35">
@@ -1125,19 +1125,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.498</v>
+        <v>0.867</v>
       </c>
       <c r="C35" t="n">
-        <v>1.417</v>
+        <v>1.262</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.925</v>
+        <v>-1.803</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.413</v>
+        <v>-0.022</v>
       </c>
       <c r="F35" t="n">
-        <v>1.665</v>
+        <v>1.046</v>
       </c>
     </row>
     <row r="36">
@@ -1145,19 +1145,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.386</v>
+        <v>1.003</v>
       </c>
       <c r="C36" t="n">
-        <v>1.28</v>
+        <v>0.733</v>
       </c>
       <c r="D36" t="n">
-        <v>1.07</v>
+        <v>-1.307</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.507</v>
+        <v>0.28</v>
       </c>
       <c r="F36" t="n">
-        <v>0.177</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="37">
@@ -1165,19 +1165,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.149</v>
+        <v>0.188</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.406</v>
+        <v>-0.339</v>
       </c>
       <c r="D37" t="n">
-        <v>0.168</v>
+        <v>-0.489</v>
       </c>
       <c r="E37" t="n">
-        <v>0.107</v>
+        <v>1.396</v>
       </c>
       <c r="F37" t="n">
-        <v>0.334</v>
+        <v>-0.827</v>
       </c>
     </row>
     <row r="38">
@@ -1185,19 +1185,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.28</v>
+        <v>0.053</v>
       </c>
       <c r="C38" t="n">
-        <v>2.597</v>
+        <v>0.215</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.178</v>
+        <v>-1.185</v>
       </c>
       <c r="E38" t="n">
-        <v>-2.873</v>
+        <v>-0.222</v>
       </c>
       <c r="F38" t="n">
-        <v>0.25</v>
+        <v>-1.548</v>
       </c>
     </row>
     <row r="39">
@@ -1205,19 +1205,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.144</v>
+        <v>-0.405</v>
       </c>
       <c r="C39" t="n">
-        <v>0.04</v>
+        <v>-1.244</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.853</v>
+        <v>0.755</v>
       </c>
       <c r="E39" t="n">
-        <v>0.78</v>
+        <v>-0.499</v>
       </c>
       <c r="F39" t="n">
-        <v>1.057</v>
+        <v>1.159</v>
       </c>
     </row>
     <row r="40">
@@ -1225,19 +1225,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.743</v>
+        <v>-2.003</v>
       </c>
       <c r="C40" t="n">
-        <v>0.277</v>
+        <v>-0.047</v>
       </c>
       <c r="D40" t="n">
-        <v>0.175</v>
+        <v>1.529</v>
       </c>
       <c r="E40" t="n">
-        <v>1.475</v>
+        <v>-1.914</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.094</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="41">
@@ -1245,19 +1245,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.202</v>
+        <v>1.725</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.615</v>
+        <v>-1.35</v>
       </c>
       <c r="D41" t="n">
-        <v>0.851</v>
+        <v>-1.043</v>
       </c>
       <c r="E41" t="n">
-        <v>1.127</v>
+        <v>-0.532</v>
       </c>
       <c r="F41" t="n">
-        <v>1.4</v>
+        <v>-0.393</v>
       </c>
     </row>
     <row r="42">
@@ -1265,19 +1265,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.077</v>
+        <v>-0.6</v>
       </c>
       <c r="C42" t="n">
-        <v>0.649</v>
+        <v>0.486</v>
       </c>
       <c r="D42" t="n">
-        <v>0.717</v>
+        <v>-1.433</v>
       </c>
       <c r="E42" t="n">
-        <v>0.244</v>
+        <v>0.052</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.016</v>
+        <v>-0.5669999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1285,19 +1285,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.42</v>
+        <v>-0.175</v>
       </c>
       <c r="C43" t="n">
-        <v>0.384</v>
+        <v>-0.788</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.146</v>
+        <v>-0.887</v>
       </c>
       <c r="E43" t="n">
-        <v>0.529</v>
+        <v>-1.337</v>
       </c>
       <c r="F43" t="n">
-        <v>0.664</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="44">
@@ -1305,19 +1305,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.283</v>
+        <v>-1.008</v>
       </c>
       <c r="C44" t="n">
-        <v>0.124</v>
+        <v>1.779</v>
       </c>
       <c r="D44" t="n">
-        <v>0.155</v>
+        <v>0.592</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.248</v>
+        <v>-0.629</v>
       </c>
       <c r="F44" t="n">
-        <v>1.141</v>
+        <v>-1.811</v>
       </c>
     </row>
     <row r="45">
@@ -1325,19 +1325,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.174</v>
+        <v>2.508</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.439</v>
+        <v>1.816</v>
       </c>
       <c r="D45" t="n">
-        <v>0.548</v>
+        <v>0.019</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.26</v>
+        <v>0.612</v>
       </c>
       <c r="F45" t="n">
-        <v>1.377</v>
+        <v>-0.305</v>
       </c>
     </row>
     <row r="46">
@@ -1345,19 +1345,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.695</v>
+        <v>-1.625</v>
       </c>
       <c r="C46" t="n">
-        <v>0.323</v>
+        <v>0.155</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.334</v>
+        <v>0.972</v>
       </c>
       <c r="E46" t="n">
-        <v>0.714</v>
+        <v>-1.412</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.148</v>
+        <v>0.9350000000000001</v>
       </c>
     </row>
     <row r="47">
@@ -1365,19 +1365,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.759</v>
+        <v>0.354</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.413</v>
+        <v>-1.504</v>
       </c>
       <c r="D47" t="n">
-        <v>0.463</v>
+        <v>0.795</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.669</v>
+        <v>-0.55</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.967</v>
+        <v>-0.149</v>
       </c>
     </row>
     <row r="48">
@@ -1385,19 +1385,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.343</v>
+        <v>-0.156</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.367</v>
+        <v>-0.461</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.986</v>
+        <v>-1.802</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.644</v>
+        <v>0.03</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.505</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="49">
@@ -1405,19 +1405,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-2.383</v>
+        <v>-2.359</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7</v>
+        <v>-0.465</v>
       </c>
       <c r="D49" t="n">
-        <v>1.181</v>
+        <v>0.537</v>
       </c>
       <c r="E49" t="n">
-        <v>0.08699999999999999</v>
+        <v>-0.723</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.501</v>
+        <v>1.328</v>
       </c>
     </row>
     <row r="50">
@@ -1425,19 +1425,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.555</v>
+        <v>0.231</v>
       </c>
       <c r="C50" t="n">
-        <v>0.243</v>
+        <v>-0.285</v>
       </c>
       <c r="D50" t="n">
-        <v>0.147</v>
+        <v>0.283</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.357</v>
+        <v>-0.487</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.75</v>
+        <v>-1.089</v>
       </c>
     </row>
     <row r="51">
@@ -1445,19 +1445,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.124</v>
+        <v>-0.944</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.339</v>
+        <v>-0.345</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.6870000000000001</v>
+        <v>-0.193</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.874</v>
+        <v>2.58</v>
       </c>
       <c r="F51" t="n">
-        <v>1.304</v>
+        <v>-0.113</v>
       </c>
     </row>
     <row r="52">
@@ -1465,19 +1465,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.342</v>
+        <v>-0.128</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.6860000000000001</v>
+        <v>-0.152</v>
       </c>
       <c r="D52" t="n">
-        <v>2.114</v>
+        <v>0.212</v>
       </c>
       <c r="E52" t="n">
-        <v>0.414</v>
+        <v>0.848</v>
       </c>
       <c r="F52" t="n">
-        <v>0.944</v>
+        <v>-0.08799999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -1485,19 +1485,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.684</v>
+        <v>0.517</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.605</v>
+        <v>0.095</v>
       </c>
       <c r="D53" t="n">
-        <v>0.974</v>
+        <v>0.362</v>
       </c>
       <c r="E53" t="n">
-        <v>0.018</v>
+        <v>0.478</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.126</v>
+        <v>-0.898</v>
       </c>
     </row>
     <row r="54">
@@ -1505,19 +1505,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.708</v>
+        <v>0.402</v>
       </c>
       <c r="C54" t="n">
-        <v>0.438</v>
+        <v>-0.112</v>
       </c>
       <c r="D54" t="n">
-        <v>1.623</v>
+        <v>-1.41</v>
       </c>
       <c r="E54" t="n">
-        <v>0.593</v>
+        <v>1.509</v>
       </c>
       <c r="F54" t="n">
-        <v>1.312</v>
+        <v>-1.063</v>
       </c>
     </row>
     <row r="55">
@@ -1525,19 +1525,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.282</v>
+        <v>0.341</v>
       </c>
       <c r="C55" t="n">
-        <v>1.062</v>
+        <v>-0.647</v>
       </c>
       <c r="D55" t="n">
-        <v>-1.797</v>
+        <v>-0.372</v>
       </c>
       <c r="E55" t="n">
-        <v>-1.032</v>
+        <v>-0.954</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7</v>
+        <v>2.796</v>
       </c>
     </row>
     <row r="56">
@@ -1545,19 +1545,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.384</v>
+        <v>-0.656</v>
       </c>
       <c r="C56" t="n">
-        <v>-1.554</v>
+        <v>0.918</v>
       </c>
       <c r="D56" t="n">
-        <v>0.232</v>
+        <v>-0.396</v>
       </c>
       <c r="E56" t="n">
-        <v>-1.83</v>
+        <v>-1.792</v>
       </c>
       <c r="F56" t="n">
-        <v>0.163</v>
+        <v>-1.333</v>
       </c>
     </row>
     <row r="57">
@@ -1565,19 +1565,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.246</v>
+        <v>0.389</v>
       </c>
       <c r="C57" t="n">
-        <v>0.882</v>
+        <v>0.988</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.227</v>
+        <v>-0.52</v>
       </c>
       <c r="E57" t="n">
-        <v>0.282</v>
+        <v>0.471</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.008999999999999999</v>
+        <v>-0.889</v>
       </c>
     </row>
     <row r="58">
@@ -1585,19 +1585,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.103</v>
+        <v>0.61</v>
       </c>
       <c r="C58" t="n">
-        <v>1.57</v>
+        <v>0.277</v>
       </c>
       <c r="D58" t="n">
-        <v>-1.159</v>
+        <v>-0.226</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.477</v>
+        <v>-1.087</v>
       </c>
       <c r="F58" t="n">
-        <v>0.05</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="59">
@@ -1605,19 +1605,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.556</v>
+        <v>0.799</v>
       </c>
       <c r="C59" t="n">
-        <v>0.841</v>
+        <v>-0.573</v>
       </c>
       <c r="D59" t="n">
-        <v>1.276</v>
+        <v>-0.028</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4</v>
+        <v>1.331</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.059</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="60">
@@ -1625,19 +1625,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.607</v>
+        <v>0.308</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.845</v>
+        <v>-1.409</v>
       </c>
       <c r="D60" t="n">
-        <v>0.47</v>
+        <v>0.219</v>
       </c>
       <c r="E60" t="n">
-        <v>1.177</v>
+        <v>1.323</v>
       </c>
       <c r="F60" t="n">
-        <v>0.247</v>
+        <v>1.008</v>
       </c>
     </row>
     <row r="61">
@@ -1645,19 +1645,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.245</v>
+        <v>0.739</v>
       </c>
       <c r="C61" t="n">
-        <v>0.243</v>
+        <v>-0.53</v>
       </c>
       <c r="D61" t="n">
-        <v>-2.253</v>
+        <v>0.801</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.42</v>
+        <v>0.493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.773</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="62">
@@ -1665,19 +1665,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.248</v>
+        <v>-0.455</v>
       </c>
       <c r="C62" t="n">
-        <v>0.269</v>
+        <v>-0.132</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.952</v>
+        <v>0.068</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.291</v>
+        <v>-1.423</v>
       </c>
       <c r="F62" t="n">
-        <v>1.244</v>
+        <v>-0.903</v>
       </c>
     </row>
     <row r="63">
@@ -1685,19 +1685,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.619</v>
+        <v>-0.276</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.667</v>
+        <v>-0.599</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.924</v>
+        <v>0.245</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="F63" t="n">
-        <v>0.284</v>
+        <v>-0.929</v>
       </c>
     </row>
     <row r="64">
@@ -1705,19 +1705,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.385</v>
+        <v>-0.398</v>
       </c>
       <c r="C64" t="n">
-        <v>0.491</v>
+        <v>-0.01</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.6929999999999999</v>
+        <v>0.754</v>
       </c>
       <c r="E64" t="n">
-        <v>0.87</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.315</v>
+        <v>0.677</v>
       </c>
     </row>
     <row r="65">
@@ -1725,19 +1725,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.957</v>
+        <v>-0.345</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.84</v>
+        <v>-0.826</v>
       </c>
       <c r="D65" t="n">
-        <v>0.343</v>
+        <v>0.821</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.126</v>
+        <v>1.241</v>
       </c>
       <c r="F65" t="n">
-        <v>0.553</v>
+        <v>0.9350000000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1745,19 +1745,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.192</v>
+        <v>1.806</v>
       </c>
       <c r="C66" t="n">
-        <v>0.215</v>
+        <v>1.196</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.518</v>
+        <v>1.028</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.914</v>
+        <v>0.211</v>
       </c>
       <c r="F66" t="n">
-        <v>0.279</v>
+        <v>1.117</v>
       </c>
     </row>
     <row r="67">
@@ -1765,19 +1765,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.29</v>
+        <v>-0.17</v>
       </c>
       <c r="C67" t="n">
-        <v>0.324</v>
+        <v>-0.2</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.104</v>
+        <v>-1.365</v>
       </c>
       <c r="E67" t="n">
-        <v>0.786</v>
+        <v>0.037</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.534</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="68">
@@ -1785,19 +1785,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.015</v>
+        <v>1.759</v>
       </c>
       <c r="C68" t="n">
-        <v>-1.463</v>
+        <v>-1.495</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8110000000000001</v>
+        <v>-1.483</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.582</v>
+        <v>-1.152</v>
       </c>
       <c r="F68" t="n">
-        <v>0.607</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="69">
@@ -1805,19 +1805,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.151</v>
+        <v>-0.257</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.484</v>
+        <v>-1.193</v>
       </c>
       <c r="D69" t="n">
-        <v>-1.598</v>
+        <v>-0.055</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.776</v>
+        <v>-0.88</v>
       </c>
       <c r="F69" t="n">
-        <v>0.533</v>
+        <v>1.137</v>
       </c>
     </row>
     <row r="70">
@@ -1825,19 +1825,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.322</v>
+        <v>-0.439</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.407</v>
+        <v>-1.022</v>
       </c>
       <c r="D70" t="n">
-        <v>0.545</v>
+        <v>-1.379</v>
       </c>
       <c r="E70" t="n">
-        <v>1.046</v>
+        <v>1.347</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.204</v>
+        <v>-0.337</v>
       </c>
     </row>
     <row r="71">
@@ -1845,19 +1845,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.779</v>
+        <v>-1.028</v>
       </c>
       <c r="C71" t="n">
-        <v>1.269</v>
+        <v>0.531</v>
       </c>
       <c r="D71" t="n">
-        <v>0.84</v>
+        <v>0.527</v>
       </c>
       <c r="E71" t="n">
-        <v>2.576</v>
+        <v>-0.545</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.155</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="72">
@@ -1865,19 +1865,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.091</v>
+        <v>0.891</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.044</v>
+        <v>1.363</v>
       </c>
       <c r="D72" t="n">
-        <v>2.211</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.537</v>
+        <v>-0.698</v>
       </c>
       <c r="F72" t="n">
-        <v>0.114</v>
+        <v>1.892</v>
       </c>
     </row>
     <row r="73">
@@ -1885,19 +1885,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.141</v>
+        <v>1.596</v>
       </c>
       <c r="C73" t="n">
-        <v>-2.146</v>
+        <v>-0.048</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.588</v>
+        <v>0.294</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.747</v>
+        <v>0.526</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.17</v>
+        <v>1.219</v>
       </c>
     </row>
     <row r="74">
@@ -1905,19 +1905,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.611</v>
+        <v>-0.638</v>
       </c>
       <c r="C74" t="n">
-        <v>0.039</v>
+        <v>0.347</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.309</v>
+        <v>-1.166</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.666</v>
+        <v>-0.352</v>
       </c>
       <c r="F74" t="n">
-        <v>0.462</v>
+        <v>1.631</v>
       </c>
     </row>
     <row r="75">
@@ -1925,19 +1925,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.953</v>
+        <v>0.644</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.529</v>
+        <v>1.774</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.903</v>
+        <v>2.388</v>
       </c>
       <c r="E75" t="n">
-        <v>0.524</v>
+        <v>-1.38</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.315</v>
+        <v>1.241</v>
       </c>
     </row>
     <row r="76">
@@ -1945,19 +1945,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.198</v>
+        <v>-0.099</v>
       </c>
       <c r="C76" t="n">
-        <v>-1.463</v>
+        <v>-0.033</v>
       </c>
       <c r="D76" t="n">
-        <v>0.302</v>
+        <v>-0.505</v>
       </c>
       <c r="E76" t="n">
-        <v>1.443</v>
+        <v>0.083</v>
       </c>
       <c r="F76" t="n">
-        <v>0.281</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="77">
@@ -1965,19 +1965,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.413</v>
+        <v>0.015</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.454</v>
+        <v>-1.379</v>
       </c>
       <c r="D77" t="n">
-        <v>0.484</v>
+        <v>1.015</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.399</v>
+        <v>-0.467</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.427</v>
+        <v>-0.081</v>
       </c>
     </row>
     <row r="78">
@@ -1985,19 +1985,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.287</v>
+        <v>1.066</v>
       </c>
       <c r="C78" t="n">
-        <v>-1.783</v>
+        <v>-0.043</v>
       </c>
       <c r="D78" t="n">
-        <v>0.582</v>
+        <v>-0.616</v>
       </c>
       <c r="E78" t="n">
-        <v>0.425</v>
+        <v>-1.327</v>
       </c>
       <c r="F78" t="n">
-        <v>0.266</v>
+        <v>1.571</v>
       </c>
     </row>
     <row r="79">
@@ -2005,19 +2005,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.964</v>
+        <v>-0.184</v>
       </c>
       <c r="C79" t="n">
-        <v>-1.604</v>
+        <v>1.074</v>
       </c>
       <c r="D79" t="n">
-        <v>-1.225</v>
+        <v>-0.218</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.312</v>
+        <v>-0.308</v>
       </c>
       <c r="F79" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="80">
@@ -2025,19 +2025,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.763</v>
+        <v>-0.01</v>
       </c>
       <c r="C80" t="n">
-        <v>-1.187</v>
+        <v>0.797</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.648</v>
+        <v>-0.024</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.243</v>
+        <v>-0.838</v>
       </c>
       <c r="F80" t="n">
-        <v>0.843</v>
+        <v>-0.189</v>
       </c>
     </row>
     <row r="81">
@@ -2045,19 +2045,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.579</v>
+        <v>1.459</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.748</v>
+        <v>1.049</v>
       </c>
       <c r="D81" t="n">
-        <v>1.738</v>
+        <v>-0.136</v>
       </c>
       <c r="E81" t="n">
-        <v>1.057</v>
+        <v>-0.421</v>
       </c>
       <c r="F81" t="n">
-        <v>0.899</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="82">
@@ -2065,19 +2065,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.374</v>
+        <v>1.808</v>
       </c>
       <c r="C82" t="n">
-        <v>1.078</v>
+        <v>0.916</v>
       </c>
       <c r="D82" t="n">
-        <v>1.1</v>
+        <v>-0.196</v>
       </c>
       <c r="E82" t="n">
-        <v>0.299</v>
+        <v>-1.265</v>
       </c>
       <c r="F82" t="n">
-        <v>0.156</v>
+        <v>-0.6820000000000001</v>
       </c>
     </row>
     <row r="83">
@@ -2085,19 +2085,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.381</v>
+        <v>0.265</v>
       </c>
       <c r="C83" t="n">
-        <v>-1.14</v>
+        <v>-0.49</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.887</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.247</v>
+        <v>0.281</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.075</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="84">
@@ -2105,19 +2105,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.727</v>
+        <v>-0.855</v>
       </c>
       <c r="C84" t="n">
-        <v>0.245</v>
+        <v>-1.224</v>
       </c>
       <c r="D84" t="n">
-        <v>0.491</v>
+        <v>1.063</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.436</v>
+        <v>-0.25</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.155</v>
+        <v>1.266</v>
       </c>
     </row>
     <row r="85">
@@ -2125,19 +2125,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.352</v>
+        <v>-0.451</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.572</v>
+        <v>1.072</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.143</v>
+        <v>-0.374</v>
       </c>
       <c r="E85" t="n">
-        <v>0.283</v>
+        <v>0.038</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.433</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="86">
@@ -2145,19 +2145,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.214</v>
+        <v>0.241</v>
       </c>
       <c r="C86" t="n">
-        <v>1.284</v>
+        <v>0.487</v>
       </c>
       <c r="D86" t="n">
-        <v>0.236</v>
+        <v>0.325</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.105</v>
+        <v>-1.461</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.672</v>
+        <v>0.9320000000000001</v>
       </c>
     </row>
     <row r="87">
@@ -2165,19 +2165,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.197</v>
+        <v>-0.501</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.29</v>
+        <v>0.91</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.013</v>
+        <v>-1.758</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.84</v>
+        <v>-0.956</v>
       </c>
       <c r="F87" t="n">
-        <v>0.996</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="88">
@@ -2185,19 +2185,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9409999999999999</v>
+        <v>-0.054</v>
       </c>
       <c r="C88" t="n">
-        <v>1.185</v>
+        <v>-1.592</v>
       </c>
       <c r="D88" t="n">
-        <v>-1.533</v>
+        <v>-0.046</v>
       </c>
       <c r="E88" t="n">
-        <v>1.294</v>
+        <v>0.334</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.103</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="89">
@@ -2205,19 +2205,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.713</v>
+        <v>-0.72</v>
       </c>
       <c r="C89" t="n">
-        <v>0.285</v>
+        <v>0.226</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.314</v>
+        <v>-0.102</v>
       </c>
       <c r="E89" t="n">
-        <v>0.652</v>
+        <v>0.739</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.209</v>
+        <v>-0.531</v>
       </c>
     </row>
     <row r="90">
@@ -2225,19 +2225,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.181</v>
+        <v>-0.098</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5679999999999999</v>
+        <v>-2.722</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.244</v>
+        <v>1.159</v>
       </c>
       <c r="E90" t="n">
-        <v>0.741</v>
+        <v>-0.651</v>
       </c>
       <c r="F90" t="n">
-        <v>0.601</v>
+        <v>-0.893</v>
       </c>
     </row>
     <row r="91">
@@ -2245,19 +2245,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.62</v>
+        <v>-2.048</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.545</v>
+        <v>-1.947</v>
       </c>
       <c r="D91" t="n">
-        <v>1.726</v>
+        <v>0.798</v>
       </c>
       <c r="E91" t="n">
-        <v>1.299</v>
+        <v>1.276</v>
       </c>
       <c r="F91" t="n">
-        <v>0.512</v>
+        <v>-0.138</v>
       </c>
     </row>
     <row r="92">
@@ -2265,19 +2265,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.751</v>
+        <v>1.413</v>
       </c>
       <c r="C92" t="n">
-        <v>-1.397</v>
+        <v>-0.964</v>
       </c>
       <c r="D92" t="n">
-        <v>0.409</v>
+        <v>0.924</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.732</v>
+        <v>-0.168</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.137</v>
+        <v>-2.717</v>
       </c>
     </row>
     <row r="93">
@@ -2285,19 +2285,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.444</v>
+        <v>-0.781</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.96</v>
+        <v>0.844</v>
       </c>
       <c r="D93" t="n">
-        <v>0.033</v>
+        <v>0.874</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5649999999999999</v>
+        <v>-0.601</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.413</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="94">
@@ -2305,19 +2305,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.606</v>
+        <v>-0.198</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8090000000000001</v>
+        <v>1.535</v>
       </c>
       <c r="D94" t="n">
-        <v>0.833</v>
+        <v>0.179</v>
       </c>
       <c r="E94" t="n">
-        <v>1.524</v>
+        <v>2.017</v>
       </c>
       <c r="F94" t="n">
-        <v>0.464</v>
+        <v>-1.113</v>
       </c>
     </row>
     <row r="95">
@@ -2325,19 +2325,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.54</v>
+        <v>0.623</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.729</v>
+        <v>1.427</v>
       </c>
       <c r="D95" t="n">
-        <v>0.986</v>
+        <v>-0.652</v>
       </c>
       <c r="E95" t="n">
-        <v>0.008</v>
+        <v>0.125</v>
       </c>
       <c r="F95" t="n">
-        <v>0.133</v>
+        <v>-0.913</v>
       </c>
     </row>
     <row r="96">
@@ -2345,19 +2345,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.08400000000000001</v>
+        <v>-0.014</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.553</v>
+        <v>-0.215</v>
       </c>
       <c r="D96" t="n">
-        <v>-2.177</v>
+        <v>1.335</v>
       </c>
       <c r="E96" t="n">
-        <v>0.358</v>
+        <v>1.709</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.551</v>
+        <v>-0.302</v>
       </c>
     </row>
     <row r="97">
@@ -2365,19 +2365,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.424</v>
+        <v>-0.95</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.415</v>
+        <v>-0.598</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.063</v>
+        <v>2.346</v>
       </c>
       <c r="E97" t="n">
-        <v>-1.507</v>
+        <v>0.409</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.647</v>
+        <v>-1.279</v>
       </c>
     </row>
     <row r="98">
@@ -2385,19 +2385,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.585</v>
+        <v>0.728</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.44</v>
+        <v>-0.594</v>
       </c>
       <c r="D98" t="n">
-        <v>0.027</v>
+        <v>0.096</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.725</v>
+        <v>1.104</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.793</v>
+        <v>-0.743</v>
       </c>
     </row>
     <row r="99">
@@ -2405,19 +2405,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.634</v>
+        <v>-0.836</v>
       </c>
       <c r="C99" t="n">
-        <v>-1.509</v>
+        <v>0.249</v>
       </c>
       <c r="D99" t="n">
-        <v>-1.43</v>
+        <v>1.209</v>
       </c>
       <c r="E99" t="n">
-        <v>1.386</v>
+        <v>1.268</v>
       </c>
       <c r="F99" t="n">
-        <v>0.261</v>
+        <v>-0.544</v>
       </c>
     </row>
     <row r="100">
@@ -2425,19 +2425,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.026</v>
+        <v>1.211</v>
       </c>
       <c r="C100" t="n">
-        <v>1.514</v>
+        <v>-0.6850000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.733</v>
+        <v>-0.908</v>
       </c>
       <c r="E100" t="n">
-        <v>-2.532</v>
+        <v>-0.311</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.631</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="101">
@@ -2445,19 +2445,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.221</v>
+        <v>-0.344</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.892</v>
+        <v>-0.587</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.46</v>
+        <v>-0.38</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.766</v>
+        <v>0.951</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.516</v>
+        <v>1.599</v>
       </c>
     </row>
   </sheetData>
